--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -29,9 +29,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,34 +542,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -749,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -881,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -925,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -969,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1101,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1145,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1233,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1277,7 +1277,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1321,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1365,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1409,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1453,7 +1453,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1497,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1541,7 +1541,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1585,7 +1585,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1629,7 +1629,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1673,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1717,7 +1717,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1761,7 +1761,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1805,7 +1805,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1849,7 +1849,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1893,7 +1893,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1937,7 +1937,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1981,7 +1981,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2025,7 +2025,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2069,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2113,7 +2113,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <f>SUM(C3:C38)/COUNT(C3:C38)</f>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -161,9 +161,6 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -2025,7 +2025,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2069,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2113,7 +2113,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>SUM(C3:C38)/COUNT(C3:C38)</f>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,7 +227,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +584,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(A3&lt;33,A$1*1.1,A$1/2)</f>
+        <f>A1*1.1</f>
         <v>26.400000000000002</v>
       </c>
       <c r="E3" s="1">
@@ -597,7 +598,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3-F3&lt;0,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -614,6 +615,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -624,11 +626,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,A$1*1.1,A$1/2)</f>
+        <f>D3</f>
         <v>26.400000000000002</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>1834.8000000000002</v>
       </c>
       <c r="F4" s="2">
@@ -640,7 +642,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4-F4&lt;0,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -648,16 +650,17 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>1834.8000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -668,40 +671,41 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>26.400000000000002</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1821.6000000000001</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1821.6000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -712,40 +716,41 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1808.4</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1808.4</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -756,40 +761,41 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1795.2</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1795.2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -800,40 +806,41 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1782.0000000000002</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1782.0000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -844,40 +851,41 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1768.8000000000002</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1768.8000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -888,40 +896,41 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1755.6000000000001</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1755.6000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -932,40 +941,41 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1742.4</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1742.4</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -976,40 +986,41 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1729.2</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1739.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1020,40 +1031,41 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1716.0000000000002</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1736.0000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1064,40 +1076,41 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1702.8000000000002</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1732.8000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1108,40 +1121,41 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1689.6000000000001</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1729.6000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1152,40 +1166,41 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1676.4</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1726.4</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1196,40 +1211,41 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1663.2</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1723.2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1240,40 +1256,41 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1650.0000000000002</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1720.0000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1284,40 +1301,41 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1636.8000000000002</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1716.8000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1328,40 +1346,41 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1623.6000000000001</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1713.6000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1372,40 +1391,41 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1610.4</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1710.4</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1416,40 +1436,41 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1597.2</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1707.2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1460,40 +1481,41 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1584.0000000000002</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1704.0000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1504,40 +1526,41 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1570.8000000000002</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1700.8000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1548,40 +1571,41 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1557.6000000000001</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1697.6000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1592,40 +1616,41 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1544.4</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1694.4</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1636,40 +1661,41 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1531.2</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1691.2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1680,40 +1706,41 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1518.0000000000002</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1688.0000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1724,40 +1751,41 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1504.8000000000002</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1684.8000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1768,40 +1796,41 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1491.6000000000001</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1681.6000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1812,40 +1841,41 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1478.4</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1678.4</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1856,40 +1886,41 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1465.2</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1675.2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1900,40 +1931,41 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1452.0000000000002</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1672.0000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1944,40 +1976,41 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>26.400000000000002</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1438.8000000000002</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1668.8000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1988,40 +2021,41 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f>A1/2</f>
         <v>12</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>648</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>888</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2032,40 +2066,41 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
+        <f>D35</f>
         <v>12</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>642</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>892</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2076,40 +2111,41 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D37:D38" si="10">D36</f>
         <v>12</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>896</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2120,35 +2156,35 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
@@ -2156,9 +2192,9 @@
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="3">
-        <f>SUM(K3:K38)</f>
-        <v>58924.800000000003</v>
+      <c r="C40" s="4">
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>58924</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -2167,7 +2203,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="1">
-        <f>SUM(C3:C38)/COUNT(C3:C38)</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
@@ -2189,7 +2225,14 @@
         <v>1848.0000000000002</v>
       </c>
     </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -47,9 +47,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Абдельвахаб</t>
-  </si>
-  <si>
     <t>Алтынов</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Адельвахаб</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -561,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -664,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -979,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1069,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1114,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1159,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1204,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1249,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1294,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1339,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1384,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1429,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1519,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1609,7 +1609,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1654,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1699,7 +1699,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1744,7 +1744,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1789,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1834,7 +1834,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1879,7 +1879,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1924,7 +1924,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1969,7 +1969,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2014,7 +2014,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2059,7 +2059,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2104,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2149,7 +2149,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F156A3-8D61-4440-8ECC-65CE8DDB2A78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A56520E-246F-4E5C-AA23-D0AA97EC50CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{A4B6AF1B-B7A5-4949-8108-C54C638F128C}"/>
+    <workbookView xWindow="5835" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{A4B6AF1B-B7A5-4949-8108-C54C638F128C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -228,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,11 +256,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,26 +277,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <font>
+        <b val="0"/>
+        <family val="1"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -299,37 +361,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -346,17 +377,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CDF27F8-8CCE-4966-84E4-CDF6947AAF4B}" name="Таблица2" displayName="Таблица2" ref="A2:K38" headerRowCount="0">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{20ECBBB0-AEA3-4F9A-9191-072D87B0A1A3}" name="Столбец1" totalsRowLabel="Итог" headerRowDxfId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{6570DA52-EFE7-4B93-BB6D-902823C08AEC}" name="Столбец2" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{20ECBBB0-AEA3-4F9A-9191-072D87B0A1A3}" name="Столбец1" totalsRowLabel="Итог" headerRowDxfId="11" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6570DA52-EFE7-4B93-BB6D-902823C08AEC}" name="Столбец2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{256C28A8-C919-4CD9-BB9B-30430F003794}" name="Столбец3" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{18A24A34-BC4F-4F32-AB98-0FA43F2CB4D4}" name="Столбец4" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{6D45E14C-3992-4EAD-84D9-B7899E73D007}" name="Столбец5" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{3297BC61-8C13-4FC1-82F8-D6DB2E269A2E}" name="Столбец6" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{28F34830-B2A5-444A-BE69-6F69BE98D5A7}" name="Столбец7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{65D0D6F4-98DD-468C-BF6D-B62872F990EB}" name="Столбец8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{C0029E7A-8C97-4C68-83FE-CE0EC53A432E}" name="Столбец9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{3537A7DB-DF4D-41DA-AE1D-A601B26AED92}" name="Столбец10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{42865CC0-8744-485D-9AAE-59732AEB4BAD}" name="Столбец11" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{65D0D6F4-98DD-468C-BF6D-B62872F990EB}" name="Столбец8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{C0029E7A-8C97-4C68-83FE-CE0EC53A432E}" name="Столбец9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{3537A7DB-DF4D-41DA-AE1D-A601B26AED92}" name="Столбец10" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{42865CC0-8744-485D-9AAE-59732AEB4BAD}" name="Столбец11" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -661,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F402F3-B27D-431F-B447-93F9F2CC7A7E}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,60 +711,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>1.1*4</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>308</v>
       </c>
@@ -743,37 +774,37 @@
       <c r="G3" s="7">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="9">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <f>1.1*4</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>305.8</v>
       </c>
@@ -784,37 +815,37 @@
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>305.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="9">
         <f t="shared" ref="A5:A38" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <f t="shared" ref="C5:C38" si="1">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <f t="shared" ref="D5:D38" si="2">1.1*4</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>303.60000000000002</v>
       </c>
@@ -825,37 +856,37 @@
         <f t="shared" ref="G5:G31" si="3">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>303.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <f t="shared" si="1"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E6" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>301.40000000000003</v>
       </c>
@@ -866,37 +897,37 @@
         <f t="shared" si="3"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>301.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E7" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>299.20000000000005</v>
       </c>
@@ -907,37 +938,37 @@
         <f t="shared" si="3"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>299.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E8" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>297</v>
       </c>
@@ -948,37 +979,37 @@
         <f t="shared" si="3"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E9" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>294.8</v>
       </c>
@@ -989,37 +1020,37 @@
         <f t="shared" si="3"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>294.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <f t="shared" si="1"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E10" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>292.60000000000002</v>
       </c>
@@ -1030,37 +1061,37 @@
         <f t="shared" si="3"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>292.60000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E11" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>290.40000000000003</v>
       </c>
@@ -1071,37 +1102,37 @@
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>290.40000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E12" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>288.20000000000005</v>
       </c>
@@ -1112,38 +1143,38 @@
         <f t="shared" si="3"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>298.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E13" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>286</v>
       </c>
@@ -1154,39 +1185,39 @@
         <f t="shared" si="3"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
         <f>H12+1</f>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>283.8</v>
       </c>
@@ -1197,39 +1228,39 @@
         <f t="shared" si="3"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <f t="shared" ref="H14:H38" si="4">H13+1</f>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="4">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>313.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E15" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>281.60000000000002</v>
       </c>
@@ -1240,39 +1271,39 @@
         <f t="shared" si="3"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="4">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>321.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <f t="shared" si="1"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E16" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>279.40000000000003</v>
       </c>
@@ -1283,39 +1314,39 @@
         <f t="shared" si="3"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>329.40000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E17" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>277.20000000000005</v>
       </c>
@@ -1326,39 +1357,39 @@
         <f t="shared" si="3"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>337.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E18" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>275</v>
       </c>
@@ -1369,39 +1400,39 @@
         <f t="shared" si="3"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E19" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>272.8</v>
       </c>
@@ -1412,39 +1443,39 @@
         <f t="shared" si="3"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="4">
+        <v>10</v>
+      </c>
+      <c r="J19" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>352.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <f t="shared" si="1"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E20" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>270.60000000000002</v>
       </c>
@@ -1455,39 +1486,39 @@
         <f t="shared" si="3"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>360.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E21" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>268.40000000000003</v>
       </c>
@@ -1498,39 +1529,39 @@
         <f t="shared" si="3"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="4">
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>368.40000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>266.20000000000005</v>
       </c>
@@ -1541,39 +1572,39 @@
         <f t="shared" si="3"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="4">
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>376.20000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E23" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>264</v>
       </c>
@@ -1584,39 +1615,39 @@
         <f>G22+1</f>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="4">
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <f t="shared" si="1"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E24" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>261.8</v>
       </c>
@@ -1627,39 +1658,39 @@
         <f t="shared" si="3"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="4">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="4">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>391.8</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E25" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>259.60000000000002</v>
       </c>
@@ -1670,39 +1701,39 @@
         <f t="shared" si="3"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="4">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="4">
+        <v>10</v>
+      </c>
+      <c r="J25" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>399.6</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E26" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>257.40000000000003</v>
       </c>
@@ -1713,39 +1744,39 @@
         <f t="shared" si="3"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="4">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="4">
+        <v>10</v>
+      </c>
+      <c r="J26" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>407.40000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E27" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>255.20000000000002</v>
       </c>
@@ -1756,39 +1787,39 @@
         <f t="shared" si="3"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="4">
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>415.20000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E28" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>253.00000000000003</v>
       </c>
@@ -1799,39 +1830,39 @@
         <f t="shared" si="3"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="4">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E29" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>250.8</v>
       </c>
@@ -1842,39 +1873,39 @@
         <f t="shared" si="3"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="4">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="4">
+        <v>10</v>
+      </c>
+      <c r="J29" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>430.8</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <f t="shared" si="1"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E30" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>248.60000000000002</v>
       </c>
@@ -1885,39 +1916,39 @@
         <f>G29+1</f>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="4">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="4">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>438.6</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E31" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>246.40000000000003</v>
       </c>
@@ -1928,39 +1959,39 @@
         <f t="shared" si="3"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="4">
+        <v>10</v>
+      </c>
+      <c r="J31" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>446.40000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <f t="shared" si="1"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E32" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>244.20000000000002</v>
       </c>
@@ -1971,39 +2002,39 @@
         <f>G31+1</f>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="4">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>454.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E33" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>242.00000000000003</v>
       </c>
@@ -2013,39 +2044,39 @@
       <c r="G33" s="7">
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="4">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="4">
+        <v>10</v>
+      </c>
+      <c r="J33" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <f t="shared" si="1"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E34" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>239.8</v>
       </c>
@@ -2056,39 +2087,39 @@
         <f>G33+1</f>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="4">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="4">
+        <v>10</v>
+      </c>
+      <c r="J34" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>469.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E35" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>237.60000000000002</v>
       </c>
@@ -2099,39 +2130,39 @@
         <f t="shared" ref="G35:G38" si="5">G34+1</f>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="4">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="4">
+        <v>10</v>
+      </c>
+      <c r="J35" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>477.6</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <f t="shared" si="1"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E36" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>235.4</v>
       </c>
@@ -2142,39 +2173,39 @@
         <f t="shared" si="5"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="4">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="4">
+        <v>10</v>
+      </c>
+      <c r="J36" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>485.4</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E37" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>233.20000000000002</v>
       </c>
@@ -2185,39 +2216,39 @@
         <f t="shared" si="5"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="4">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="4">
+        <v>10</v>
+      </c>
+      <c r="J37" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>493.20000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E38" s="4">
         <f>Таблица2[[#This Row],[Столбец3]]*Таблица2[[#This Row],[Столбец4]]</f>
         <v>231.00000000000003</v>
       </c>
@@ -2228,54 +2259,54 @@
         <f t="shared" si="5"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="4">
+        <v>10</v>
+      </c>
+      <c r="J38" s="4">
         <f>Таблица2[[#This Row],[Столбец9]]*Таблица2[[#This Row],[Столбец8]]</f>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="4">
         <f>Таблица2[[#This Row],[Столбец10]]+Таблица2[[#This Row],[Столбец5]]</f>
         <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="1">
-        <f>SUM(K3:K38)</f>
+      <c r="C40" s="11">
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
         <v>13482</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="11">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="12">
         <f>MAX(K3:K38)</f>
         <v>501</v>
       </c>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A56520E-246F-4E5C-AA23-D0AA97EC50CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55511866-42A7-48DC-B166-72CC9A82BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{A4B6AF1B-B7A5-4949-8108-C54C638F128C}"/>
+    <workbookView xWindow="6180" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{A4B6AF1B-B7A5-4949-8108-C54C638F128C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -305,16 +305,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <font>
-        <b val="0"/>
-        <family val="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -341,6 +331,16 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -377,17 +377,17 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CDF27F8-8CCE-4966-84E4-CDF6947AAF4B}" name="Таблица2" displayName="Таблица2" ref="A2:K38" headerRowCount="0">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{20ECBBB0-AEA3-4F9A-9191-072D87B0A1A3}" name="Столбец1" totalsRowLabel="Итог" headerRowDxfId="11" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{6570DA52-EFE7-4B93-BB6D-902823C08AEC}" name="Столбец2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{256C28A8-C919-4CD9-BB9B-30430F003794}" name="Столбец3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{18A24A34-BC4F-4F32-AB98-0FA43F2CB4D4}" name="Столбец4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{6D45E14C-3992-4EAD-84D9-B7899E73D007}" name="Столбец5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3297BC61-8C13-4FC1-82F8-D6DB2E269A2E}" name="Столбец6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{28F34830-B2A5-444A-BE69-6F69BE98D5A7}" name="Столбец7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{65D0D6F4-98DD-468C-BF6D-B62872F990EB}" name="Столбец8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{C0029E7A-8C97-4C68-83FE-CE0EC53A432E}" name="Столбец9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{3537A7DB-DF4D-41DA-AE1D-A601B26AED92}" name="Столбец10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{42865CC0-8744-485D-9AAE-59732AEB4BAD}" name="Столбец11" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{20ECBBB0-AEA3-4F9A-9191-072D87B0A1A3}" name="Столбец1" totalsRowLabel="Итог" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6570DA52-EFE7-4B93-BB6D-902823C08AEC}" name="Столбец2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{256C28A8-C919-4CD9-BB9B-30430F003794}" name="Столбец3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{18A24A34-BC4F-4F32-AB98-0FA43F2CB4D4}" name="Столбец4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6D45E14C-3992-4EAD-84D9-B7899E73D007}" name="Столбец5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3297BC61-8C13-4FC1-82F8-D6DB2E269A2E}" name="Столбец6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{28F34830-B2A5-444A-BE69-6F69BE98D5A7}" name="Столбец7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{65D0D6F4-98DD-468C-BF6D-B62872F990EB}" name="Столбец8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C0029E7A-8C97-4C68-83FE-CE0EC53A432E}" name="Столбец9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{3537A7DB-DF4D-41DA-AE1D-A601B26AED92}" name="Столбец10" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{42865CC0-8744-485D-9AAE-59732AEB4BAD}" name="Столбец11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
@@ -693,7 +693,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -68,9 +68,6 @@
     <t>Галимов</t>
   </si>
   <si>
-    <t>Пенни за 1 день, руб.</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Адельвахаб</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -561,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -979,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1024,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1069,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1114,7 +1114,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1159,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1204,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1249,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1294,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1339,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1384,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1429,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1519,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1564,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1609,7 +1609,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1654,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1699,7 +1699,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1744,7 +1744,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1789,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1834,7 +1834,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1879,7 +1879,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1924,7 +1924,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1969,7 +1969,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2014,19 +2014,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>A1/2</f>
-        <v>12</v>
+        <f>$D$3/2</f>
+        <v>13.200000000000001</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>648</v>
+        <v>712.80000000000007</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>888</v>
+        <v>952.80000000000007</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2059,19 +2059,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D35</f>
-        <v>12</v>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <v>13.200000000000001</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>642</v>
+        <v>706.2</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="7"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>892</v>
+        <v>956.2</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2104,19 +2104,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:D38" si="10">D36</f>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>13.200000000000001</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>636</v>
+        <v>699.6</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="7"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>896</v>
+        <v>959.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2149,7 +2149,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2157,11 +2157,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>630</v>
+        <v>693</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="7"/>
@@ -2185,22 +2185,22 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>963</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>58924</v>
+        <v>59180</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9783B1-432B-40F8-8BFC-DD4AEB7BA3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9918B-DD03-4B56-8BDD-D466A7CBD78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9918B-DD03-4B56-8BDD-D466A7CBD78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08BCDC24-838B-4797-A110-C90DF2AC0C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6870" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,16 +177,16 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма, руб.</t>
+    <t>Общая сумма графы "Итого", руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,6 +241,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,7 +528,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2208,37 +2212,37 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="6">
         <f>INT(SUM(K3:K38))</f>
         <v>59180</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="6">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="6">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="6">
         <f>MAX(K3:K38)</f>
         <v>1848.0000000000002</v>
       </c>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08BCDC24-838B-4797-A110-C90DF2AC0C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47478526-14B6-4270-81F3-1DDEC98547A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11025" yWindow="465" windowWidth="16350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -183,17 +183,17 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -229,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,14 +244,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,22 +540,22 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -561,1691 +573,1740 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <f>$A$1*1.1</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <f>C3*D3</f>
         <v>1848.0000000000002</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="7">
         <v>44805</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="6">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="6">
         <f>E3+J3</f>
         <v>1848.0000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>1834.8000000000002</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <f>$I$3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>1834.8000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>1821.6000000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <f>I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="6">
         <f t="shared" si="4"/>
         <v>1821.6000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>1808.4</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="6">
         <f t="shared" ref="I6:I38" si="9">I5</f>
         <v>10</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="6">
         <f t="shared" si="4"/>
         <v>1808.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>1795.2</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="6">
         <f t="shared" si="4"/>
         <v>1795.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>1782.0000000000002</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="6">
         <f t="shared" si="4"/>
         <v>1782.0000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>1768.8000000000002</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="6">
         <f t="shared" si="4"/>
         <v>1768.8000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>1755.6000000000001</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="6">
         <f t="shared" si="4"/>
         <v>1755.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>1742.4</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="F11" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="6">
         <f t="shared" si="4"/>
         <v>1742.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>1729.2</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="6">
         <f t="shared" si="4"/>
         <v>1739.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
         <v>1716.0000000000002</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="6">
         <f t="shared" si="4"/>
         <v>1736.0000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>1702.8000000000002</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="6">
         <f t="shared" si="4"/>
         <v>1732.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>1689.6000000000001</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="6">
         <f t="shared" si="4"/>
         <v>1729.6000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>1676.4</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="6">
         <f t="shared" si="4"/>
         <v>1726.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
         <v>1663.2</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="6">
         <f t="shared" si="4"/>
         <v>1723.2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
         <v>1650.0000000000002</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="6">
         <f t="shared" si="4"/>
         <v>1720.0000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>1636.8000000000002</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I19" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="6">
         <f t="shared" si="4"/>
         <v>1716.8000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="1"/>
         <v>1623.6000000000001</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I20" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="6">
         <f t="shared" si="4"/>
         <v>1713.6000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="1"/>
         <v>1610.4</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="6">
         <f t="shared" si="4"/>
         <v>1710.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>1597.2</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I22" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="6">
         <f t="shared" si="4"/>
         <v>1707.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="1"/>
         <v>1584.0000000000002</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I23" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="6">
         <f t="shared" si="4"/>
         <v>1704.0000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="1"/>
         <v>1570.8000000000002</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="6">
         <f t="shared" si="4"/>
         <v>1700.8000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="1"/>
         <v>1557.6000000000001</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="I25" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="6">
         <f t="shared" si="4"/>
         <v>1697.6000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" si="1"/>
         <v>1544.4</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="6">
         <f t="shared" si="4"/>
         <v>1694.4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E27" s="6">
         <f t="shared" si="1"/>
         <v>1531.2</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="6">
         <f t="shared" si="4"/>
         <v>1691.2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E28" s="6">
         <f t="shared" si="1"/>
         <v>1518.0000000000002</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="6">
         <f t="shared" si="4"/>
         <v>1688.0000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E29" s="6">
         <f t="shared" si="1"/>
         <v>1504.8000000000002</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="6">
         <f t="shared" si="4"/>
         <v>1684.8000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="6">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E30" s="6">
         <f t="shared" si="1"/>
         <v>1491.6000000000001</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I30" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="6">
         <f t="shared" si="4"/>
         <v>1681.6000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="6">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E31" s="6">
         <f t="shared" si="1"/>
         <v>1478.4</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="6">
         <f t="shared" si="4"/>
         <v>1678.4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="6">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E32" s="6">
         <f t="shared" si="1"/>
         <v>1465.2</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="7">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I32" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="6">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="6">
         <f t="shared" si="4"/>
         <v>1675.2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="6">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E33" s="6">
         <f t="shared" si="1"/>
         <v>1452.0000000000002</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I33" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="6">
         <f t="shared" si="4"/>
         <v>1672.0000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="6">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E34" s="6">
         <f t="shared" si="1"/>
         <v>1438.8000000000002</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="6">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="I34" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="6">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="6">
         <f t="shared" si="4"/>
         <v>1668.8000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <f>($A$1*1.1)/2</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="6">
         <f t="shared" si="1"/>
         <v>712.80000000000007</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="I35" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="6">
         <f t="shared" si="4"/>
         <v>952.80000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="6">
         <f t="shared" si="1"/>
         <v>706.2</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="I36" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="6">
         <f t="shared" si="4"/>
         <v>956.2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <f t="shared" si="10"/>
         <v>13.200000000000001</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="6">
         <f t="shared" si="1"/>
         <v>699.6</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="7">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="I37" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="6">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="6">
         <f t="shared" si="4"/>
         <v>959.6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <f t="shared" si="10"/>
         <v>13.200000000000001</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="6">
         <f t="shared" si="1"/>
         <v>693</v>
       </c>
-      <c r="F38" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="I38" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="6">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="6">
         <f t="shared" si="4"/>
         <v>963</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="6">
         <f>INT(SUM(K3:K38))</f>
         <v>59180</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="6">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="6">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="6">
         <f>MAX(K3:K38)</f>
         <v>1848.0000000000002</v>
       </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47478526-14B6-4270-81F3-1DDEC98547A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{492A3D89-7EF6-4902-8230-6F92086053A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11025" yWindow="465" windowWidth="16350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="16350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -236,27 +236,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,1686 +531,1686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>24</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <f>$A$1*1.1</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <f>C3*D3</f>
         <v>1848.0000000000002</v>
       </c>
-      <c r="F3" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <f>E3+J3</f>
         <v>1848.0000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>1834.8000000000002</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <f>$I$3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>1834.8000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>1821.6000000000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <f>I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <f t="shared" si="4"/>
         <v>1821.6000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>1808.4</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <f t="shared" ref="I6:I38" si="9">I5</f>
         <v>10</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <f t="shared" si="4"/>
         <v>1808.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>1795.2</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <f t="shared" si="4"/>
         <v>1795.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>1782.0000000000002</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <f t="shared" si="4"/>
         <v>1782.0000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>1768.8000000000002</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <f t="shared" si="4"/>
         <v>1768.8000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>1755.6000000000001</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
         <v>1755.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>1742.4</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="F11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="3">
         <f t="shared" si="4"/>
         <v>1742.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>1729.2</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="4"/>
         <v>1739.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>1716.0000000000002</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="3">
         <f t="shared" si="4"/>
         <v>1736.0000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>1702.8000000000002</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="3">
         <f t="shared" si="4"/>
         <v>1732.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>1689.6000000000001</v>
       </c>
-      <c r="F15" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <f t="shared" si="4"/>
         <v>1729.6000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>1676.4</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="I16" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <f t="shared" si="4"/>
         <v>1726.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>1663.2</v>
       </c>
-      <c r="F17" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="3">
         <f t="shared" si="4"/>
         <v>1723.2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>1650.0000000000002</v>
       </c>
-      <c r="F18" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="I18" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="3">
         <f t="shared" si="4"/>
         <v>1720.0000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>1636.8000000000002</v>
       </c>
-      <c r="F19" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="I19" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="3">
         <f t="shared" si="4"/>
         <v>1716.8000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>1623.6000000000001</v>
       </c>
-      <c r="F20" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="I20" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="3">
         <f t="shared" si="4"/>
         <v>1713.6000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>1610.4</v>
       </c>
-      <c r="F21" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
         <v>1710.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>1597.2</v>
       </c>
-      <c r="F22" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="I22" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="3">
         <f t="shared" si="4"/>
         <v>1707.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>1584.0000000000002</v>
       </c>
-      <c r="F23" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="I23" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="3">
         <f t="shared" si="4"/>
         <v>1704.0000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>1570.8000000000002</v>
       </c>
-      <c r="F24" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="I24" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="3">
         <f t="shared" si="4"/>
         <v>1700.8000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>1557.6000000000001</v>
       </c>
-      <c r="F25" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="3">
         <f t="shared" si="4"/>
         <v>1697.6000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>1544.4</v>
       </c>
-      <c r="F26" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="I26" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <f t="shared" si="4"/>
         <v>1694.4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
         <v>1531.2</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I27" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="3">
         <f t="shared" si="4"/>
         <v>1691.2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>1518.0000000000002</v>
       </c>
-      <c r="F28" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="I28" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <f t="shared" si="4"/>
         <v>1688.0000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>1504.8000000000002</v>
       </c>
-      <c r="F29" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="F29" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="I29" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="3">
         <f t="shared" si="4"/>
         <v>1684.8000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>1491.6000000000001</v>
       </c>
-      <c r="F30" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="I30" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="3">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="3">
         <f t="shared" si="4"/>
         <v>1681.6000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>1478.4</v>
       </c>
-      <c r="F31" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="I31" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="3">
         <f t="shared" si="4"/>
         <v>1678.4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>1465.2</v>
       </c>
-      <c r="F32" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="F32" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="I32" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="3">
         <f t="shared" si="4"/>
         <v>1675.2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>1452.0000000000002</v>
       </c>
-      <c r="F33" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="I33" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="3">
         <f t="shared" si="4"/>
         <v>1672.0000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="6">
-        <f t="shared" si="0"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="E34" s="3">
         <f t="shared" si="1"/>
         <v>1438.8000000000002</v>
       </c>
-      <c r="F34" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="I34" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="3">
         <f t="shared" si="4"/>
         <v>1668.8000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
         <f>($A$1*1.1)/2</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <f t="shared" si="1"/>
         <v>712.80000000000007</v>
       </c>
-      <c r="F35" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="I35" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="3">
         <f t="shared" si="4"/>
         <v>952.80000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="3">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="3">
         <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="3">
         <f t="shared" si="1"/>
         <v>706.2</v>
       </c>
-      <c r="F36" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="I36" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <f t="shared" si="4"/>
         <v>956.2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <f t="shared" si="10"/>
         <v>13.200000000000001</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="3">
         <f t="shared" si="1"/>
         <v>699.6</v>
       </c>
-      <c r="F37" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="I37" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="3">
         <f t="shared" si="4"/>
         <v>959.6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="3">
         <f t="shared" si="10"/>
         <v>13.200000000000001</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="3">
         <f t="shared" si="1"/>
         <v>693</v>
       </c>
-      <c r="F38" s="7">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F38" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="3">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="6">
+      <c r="I38" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
         <v>963</v>
       </c>
@@ -2236,12 +2228,12 @@
       <c r="J39"/>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <f>INT(SUM(K3:K38))</f>
         <v>59180</v>
       </c>
@@ -2254,12 +2246,12 @@
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2272,12 +2264,12 @@
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42"/>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2290,12 +2282,12 @@
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43"/>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <f>MAX(K3:K38)</f>
         <v>1848.0000000000002</v>
       </c>
@@ -2310,5 +2302,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28513B7C-09C2-46DA-94DF-5EC93D8138C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,18 +153,12 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрчоки, дней</t>
-  </si>
-  <si>
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
@@ -177,12 +172,18 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Банницин</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,40 +511,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -564,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
@@ -573,12 +574,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -613,7 +614,7 @@
         <v>1848.0000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -658,7 +659,7 @@
         <v>1834.8000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -703,7 +704,7 @@
         <v>1821.6000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -748,7 +749,7 @@
         <v>1808.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>A6+1</f>
         <v>5</v>
@@ -793,7 +794,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -838,7 +839,7 @@
         <v>1782.0000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -883,7 +884,7 @@
         <v>1768.8000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -928,7 +929,7 @@
         <v>1755.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -973,7 +974,7 @@
         <v>1742.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1018,7 +1019,7 @@
         <v>1739.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1063,7 +1064,7 @@
         <v>1736.0000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1108,7 +1109,7 @@
         <v>1732.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1153,7 +1154,7 @@
         <v>1729.6000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1198,7 +1199,7 @@
         <v>1726.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1243,7 +1244,7 @@
         <v>1723.2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1288,7 +1289,7 @@
         <v>1720.0000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1333,7 +1334,7 @@
         <v>1716.8000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1378,7 +1379,7 @@
         <v>1713.6000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1423,7 +1424,7 @@
         <v>1710.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1468,7 +1469,7 @@
         <v>1707.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1513,7 +1514,7 @@
         <v>1704.0000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1558,7 +1559,7 @@
         <v>1700.8000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1603,7 +1604,7 @@
         <v>1697.6000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1648,7 +1649,7 @@
         <v>1694.4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1693,7 +1694,7 @@
         <v>1691.2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1738,7 +1739,7 @@
         <v>1688.0000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1783,7 +1784,7 @@
         <v>1684.8000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1828,7 +1829,7 @@
         <v>1681.6000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1873,7 +1874,7 @@
         <v>1678.4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1918,7 +1919,7 @@
         <v>1675.2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1963,7 +1964,7 @@
         <v>1672.0000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2008,7 +2009,7 @@
         <v>1668.8000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2053,13 +2054,13 @@
         <v>952.80000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2098,13 +2099,13 @@
         <v>956.2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2143,13 +2144,13 @@
         <v>959.6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2188,9 +2189,9 @@
         <v>963</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2198,37 +2199,37 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>1848.0000000000002</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="3"/>
     </row>
   </sheetData>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28513B7C-09C2-46DA-94DF-5EC93D8138C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42C19A-40B3-4E59-A629-9C9F7CAF2BC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,14 +514,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42C19A-40B3-4E59-A629-9C9F7CAF2BC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F32D3B-67C2-4623-B208-849E6B0D72C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -2060,7 +2060,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2105,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F32D3B-67C2-4623-B208-849E6B0D72C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E87305-DB9A-4DD3-95CB-24F024BA038B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,11 +606,11 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>1848.0000000000002</v>
       </c>
     </row>
@@ -651,11 +651,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>1834.8000000000002</v>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
-        <v>13.200000000000001</v>
+        <f>D3/3</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>712.80000000000007</v>
+        <v>475.20000000000005</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>952.80000000000007</v>
+        <v>715.2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2067,12 +2067,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
-        <v>13.200000000000001</v>
+        <f t="shared" ref="D36:D38" si="10">D4/3</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>706.2</v>
+        <v>470.8</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="7"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>956.2</v>
+        <v>720.8</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2113,11 +2113,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>13.200000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>699.6</v>
+        <v>466.40000000000003</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="7"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>959.6</v>
+        <v>726.40000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2158,11 +2158,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
-        <v>13.200000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>693</v>
+        <v>462.00000000000006</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="7"/>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>963</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>59180</v>
+        <v>58243</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E87305-DB9A-4DD3-95CB-24F024BA038B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071800EF-E2A9-4D81-8056-96E1837009DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,12 +2022,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/3</f>
-        <v>8.8000000000000007</v>
+        <f>D3/2</f>
+        <v>13.200000000000001</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>475.20000000000005</v>
+        <v>712.80000000000007</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>715.2</v>
+        <v>952.80000000000007</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2067,12 +2067,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/3</f>
-        <v>8.8000000000000007</v>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <v>13.200000000000001</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>470.8</v>
+        <v>706.2</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="7"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>720.8</v>
+        <v>956.2</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2113,11 +2113,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>8.8000000000000007</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>466.40000000000003</v>
+        <v>699.6</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="7"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>726.40000000000009</v>
+        <v>959.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2158,11 +2158,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
-        <v>8.8000000000000007</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>462.00000000000006</v>
+        <v>693</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="7"/>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>732</v>
+        <v>963</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>58243</v>
+        <v>59180</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071800EF-E2A9-4D81-8056-96E1837009DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F6248-4C48-4A6F-8892-82A423FD3BB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2022,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/2</f>
+        <f>$A$1*1.1*0.5</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E35" s="1">
@@ -2067,7 +2067,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1*0.5</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E36" s="1">

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F6248-4C48-4A6F-8892-82A423FD3BB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBFBEE-2226-458D-B802-228FA46DC197}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2022,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$A$1*1.1*0.5</f>
+        <f>D$3 / 2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E35" s="1">
@@ -2067,7 +2067,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1*0.5</f>
+        <f t="shared" ref="D36:D38" si="10">D$3 / 2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E36" s="1">

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBFBEE-2226-458D-B802-228FA46DC197}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC1AC45-06E8-43BC-97DB-5402D1F7300E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2022,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D$3 / 2</f>
+        <f>D3 / 2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E35" s="1">
@@ -2067,7 +2067,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D$3 / 2</f>
+        <f>D3 / 2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E36" s="1">
@@ -2112,7 +2112,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3 / 2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E37" s="1">
@@ -2157,7 +2157,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3 / 2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_24.xlsx
+++ b/LR3/table_1_24.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC1AC45-06E8-43BC-97DB-5402D1F7300E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,35 +510,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -614,7 +613,7 @@
         <v>1848.0000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -659,7 +658,7 @@
         <v>1834.8000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -704,7 +703,7 @@
         <v>1821.6000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -749,7 +748,7 @@
         <v>1808.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>A6+1</f>
         <v>5</v>
@@ -794,7 +793,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -839,7 +838,7 @@
         <v>1782.0000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -884,7 +883,7 @@
         <v>1768.8000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -929,7 +928,7 @@
         <v>1755.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -974,7 +973,7 @@
         <v>1742.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1019,7 +1018,7 @@
         <v>1739.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1064,7 +1063,7 @@
         <v>1736.0000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1109,7 +1108,7 @@
         <v>1732.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1154,7 +1153,7 @@
         <v>1729.6000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1199,7 +1198,7 @@
         <v>1726.4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1244,7 +1243,7 @@
         <v>1723.2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1289,7 +1288,7 @@
         <v>1720.0000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1334,7 +1333,7 @@
         <v>1716.8000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1379,7 +1378,7 @@
         <v>1713.6000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1424,7 +1423,7 @@
         <v>1710.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1469,7 +1468,7 @@
         <v>1707.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1514,7 +1513,7 @@
         <v>1704.0000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1559,7 +1558,7 @@
         <v>1700.8000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1604,7 +1603,7 @@
         <v>1697.6000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1649,7 +1648,7 @@
         <v>1694.4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1694,7 +1693,7 @@
         <v>1691.2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1739,7 +1738,7 @@
         <v>1688.0000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1784,7 +1783,7 @@
         <v>1684.8000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1829,7 +1828,7 @@
         <v>1681.6000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1874,7 +1873,7 @@
         <v>1678.4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1919,7 +1918,7 @@
         <v>1675.2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1964,7 +1963,7 @@
         <v>1672.0000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2009,7 +2008,7 @@
         <v>1668.8000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2022,7 +2021,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3 / 2</f>
+        <f>D3/2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E35" s="1">
@@ -2054,7 +2053,7 @@
         <v>952.80000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2067,7 +2066,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D3 / 2</f>
+        <f>D3/2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E36" s="1">
@@ -2099,7 +2098,7 @@
         <v>956.2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2112,7 +2111,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D3 / 2</f>
+        <f>D3/2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E37" s="1">
@@ -2144,7 +2143,7 @@
         <v>959.6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2157,7 +2156,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D3 / 2</f>
+        <f>D3/2</f>
         <v>13.200000000000001</v>
       </c>
       <c r="E38" s="1">
@@ -2189,7 +2188,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2199,7 +2198,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
@@ -2226,10 +2225,10 @@
         <v>1848.0000000000002</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F58" s="3"/>
     </row>
   </sheetData>
